--- a/proximity_2019-06-01/Badge assignments_Attendees_2019.xlsx
+++ b/proximity_2019-06-01/Badge assignments_Attendees_2019.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsugarwala\AppData\Local\Box\Box Edit\Documents\e0sialUVnEWdEIxARWIbIA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robert/Desktop/DSC383W/Capstone-URMC/proximity_2019-06-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E3E01C-997A-5140-8868-53D152E789A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="40905" windowHeight="23565"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendee data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'attendee data'!$A$1:$S$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'attendee data'!$A$1:$T$85</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="298">
   <si>
     <t>Identifier</t>
   </si>
@@ -626,18 +633,12 @@
     <t>DC:4A:A6:FB:FE:5E</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Health Sciences </t>
-  </si>
-  <si>
     <t>Badge349</t>
   </si>
   <si>
     <t>D6:1C:EA:7A:66:58</t>
   </si>
   <si>
-    <t xml:space="preserve">Translational Science </t>
-  </si>
-  <si>
     <t>Badge387</t>
   </si>
   <si>
@@ -899,9 +900,6 @@
     <t>ML</t>
   </si>
   <si>
-    <t>Computer science</t>
-  </si>
-  <si>
     <t>Image analysis</t>
   </si>
   <si>
@@ -911,9 +909,6 @@
     <t>Internal Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Health </t>
-  </si>
-  <si>
     <t>Pulmonology</t>
   </si>
   <si>
@@ -921,12 +916,24 @@
   </si>
   <si>
     <t xml:space="preserve">Biostatistics </t>
+  </si>
+  <si>
+    <t>Medical Area</t>
+  </si>
+  <si>
+    <t>Economics/Business</t>
+  </si>
+  <si>
+    <t>Physics/Chem/Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public HealthSciences </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1106,7 +1113,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,30 +1395,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView tabSelected="1" topLeftCell="M57" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="21" style="8" customWidth="1"/>
-    <col min="7" max="15" width="12.42578125" style="8" customWidth="1"/>
+    <col min="7" max="15" width="12.5" style="8" customWidth="1"/>
     <col min="16" max="16" width="21" style="8" customWidth="1"/>
-    <col min="17" max="17" width="55.140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="43.42578125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="8" customWidth="1"/>
-    <col min="20" max="16384" width="12.42578125" style="8"/>
+    <col min="17" max="17" width="55.1640625" style="8" customWidth="1"/>
+    <col min="18" max="19" width="43.5" style="8" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="12.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,31 +1471,32 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9">
-        <v>79</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="11">
         <v>0</v>
       </c>
@@ -1494,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="11">
         <v>0</v>
@@ -1512,34 +1522,39 @@
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Q2" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="B3" s="9">
-        <v>121</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E3" s="9">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>20</v>
@@ -1551,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="9">
         <v>0</v>
       </c>
       <c r="K3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
@@ -1573,39 +1588,42 @@
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="S3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="B4" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="E4" s="9">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
@@ -1630,16 +1648,19 @@
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="9">
+        <v>149</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>27</v>
       </c>
@@ -1694,25 +1715,28 @@
       <c r="R5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B6" s="9">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>31</v>
@@ -1736,156 +1760,167 @@
         <v>0</v>
       </c>
       <c r="M6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="Q6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>115</v>
+      </c>
+      <c r="B7" s="9">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="9">
         <v>36</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>53</v>
-      </c>
-      <c r="B7" s="9">
-        <v>110</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>155</v>
+      </c>
+      <c r="B8" s="9">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="S7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>76</v>
-      </c>
-      <c r="B8" s="9">
-        <v>128</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9">
+        <v>85</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="R8" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="S8" s="9">
+        <v>141</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>156</v>
+      </c>
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>80</v>
-      </c>
-      <c r="B9" s="9">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
+      <c r="C9" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>31</v>
@@ -1894,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -1915,39 +1950,40 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>1</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B10" s="9">
-        <v>71</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>113</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E10" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -1962,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -1974,48 +2010,49 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="S10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="B11" s="9">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E11" s="9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -2037,30 +2074,33 @@
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="9">
+        <v>141</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="B12" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>20</v>
@@ -2094,32 +2134,37 @@
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="S12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="B13" s="9">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E13" s="9">
-        <v>88</v>
-      </c>
-      <c r="F13" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
@@ -2127,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -2149,92 +2194,96 @@
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="9">
+        <v>141</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>317</v>
+      </c>
+      <c r="B14" s="9">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="9">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>126</v>
-      </c>
-      <c r="B14" s="9">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="9">
-        <v>89</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="B15" s="9">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E15" s="9">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -2243,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -2261,48 +2310,49 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>1</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="S15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>156</v>
+        <v>365</v>
       </c>
       <c r="B16" s="9">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="E16" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -2329,31 +2379,34 @@
       <c r="R16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="S16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="B17" s="9">
-        <v>121</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E17" s="9">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -2377,37 +2430,42 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="Q17" s="9" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="S17" s="9">
+        <v>141</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>198</v>
+        <v>549</v>
       </c>
       <c r="B18" s="9">
-        <v>121</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="E18" s="9">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -2416,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -2438,36 +2496,39 @@
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="S18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>220</v>
+        <v>579</v>
       </c>
       <c r="B19" s="9">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="E19" s="9">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -2479,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -2495,34 +2556,35 @@
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="S19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>233</v>
+        <v>696</v>
       </c>
       <c r="B20" s="9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="E20" s="9">
-        <v>77</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9">
         <v>0</v>
       </c>
@@ -2536,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -2548,37 +2610,42 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="Q20" s="9" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="S20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>238</v>
+        <v>714</v>
       </c>
       <c r="B21" s="9">
-        <v>56</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="E21" s="9">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -2593,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -2605,37 +2672,42 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="Q21" s="9" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="S21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>239</v>
+        <v>737</v>
       </c>
       <c r="B22" s="9">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="E22" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -2644,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -2666,30 +2738,33 @@
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="S22" s="9">
+        <v>141</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>245</v>
+        <v>899</v>
       </c>
       <c r="B23" s="9">
         <v>121</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="E23" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>20</v>
@@ -2698,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -2719,105 +2794,111 @@
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>1</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P23" s="9"/>
       <c r="Q23" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>99</v>
       </c>
-      <c r="R23" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="S23" s="9">
+      <c r="B24" s="9">
+        <v>71</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9">
+        <v>84</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="T24" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>246</v>
-      </c>
-      <c r="B24" s="9">
-        <v>35</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="9">
-        <v>29</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="S24" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>257</v>
+        <v>775</v>
       </c>
       <c r="B25" s="9">
-        <v>15</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>103</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="E25" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="9">
         <v>0</v>
@@ -2839,30 +2920,33 @@
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B26" s="9">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -2871,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2896,42 +2980,45 @@
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S26" s="9">
+        <v>111</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T26" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>284</v>
+        <v>940</v>
       </c>
       <c r="B27" s="9">
-        <v>99</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>109</v>
+        <v>35</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="E27" s="9">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
       </c>
       <c r="I27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
@@ -2953,33 +3040,36 @@
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="S27" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="B28" s="9">
         <v>121</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>112</v>
+      <c r="C28" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E28" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -3010,39 +3100,42 @@
       </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S28" s="9">
+        <v>95</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>298</v>
+        <v>981</v>
       </c>
       <c r="B29" s="9">
-        <v>76</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="E29" s="9">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
@@ -3067,16 +3160,19 @@
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>301</v>
       </c>
@@ -3129,25 +3225,28 @@
       <c r="R30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T30" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="B31" s="9">
-        <v>121</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>121</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E31" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9">
@@ -3157,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -3175,46 +3274,51 @@
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="Q31" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>309</v>
+        <v>501</v>
       </c>
       <c r="B32" s="9">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E32" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="9">
         <v>0</v>
       </c>
       <c r="I32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
@@ -3236,33 +3340,36 @@
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="S32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>311</v>
+        <v>531</v>
       </c>
       <c r="B33" s="9">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E33" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -3293,91 +3400,99 @@
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="9" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T33" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>317</v>
+        <v>558</v>
       </c>
       <c r="B34" s="9">
+        <v>24</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="9">
+        <v>14</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>602</v>
+      </c>
+      <c r="B35" s="9">
+        <v>36</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="9">
+        <v>39</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="9">
-        <v>32</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S34" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>349</v>
-      </c>
-      <c r="B35" s="9">
-        <v>87</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="9">
-        <v>51</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="G35" s="9">
         <v>0</v>
       </c>
@@ -3385,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -3403,38 +3518,41 @@
         <v>0</v>
       </c>
       <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="Q35" s="9" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>365</v>
+        <v>806</v>
       </c>
       <c r="B36" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="E36" s="9">
-        <v>82</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9">
         <v>0</v>
       </c>
@@ -3442,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
@@ -3464,34 +3582,35 @@
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S36" s="9">
+        <v>120</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T36" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="B37" s="9">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E37" s="9">
-        <v>27</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="9">
         <v>0</v>
       </c>
@@ -3499,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -3517,45 +3636,46 @@
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>1</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P37" s="9"/>
       <c r="Q37" s="9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S37" s="9">
+        <v>123</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="T37" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>409</v>
+        <v>638</v>
       </c>
       <c r="B38" s="9">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="E38" s="9">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="9">
         <v>0</v>
@@ -3564,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -3580,99 +3700,107 @@
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="S38" s="9">
+        <v>209</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="T38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>245</v>
+      </c>
+      <c r="B39" s="9">
+        <v>121</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="9">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="T39" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>416</v>
-      </c>
-      <c r="B39" s="9">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="9">
-        <v>17</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>1</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S39" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <v>460</v>
+        <v>738</v>
       </c>
       <c r="B40" s="9">
-        <v>117</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="E40" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -3694,32 +3822,37 @@
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="S40" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="T40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>482</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="E41" s="9">
-        <v>30</v>
-      </c>
-      <c r="F41" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G41" s="9">
         <v>0</v>
       </c>
@@ -3739,42 +3872,43 @@
         <v>0</v>
       </c>
       <c r="M41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="9">
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>1</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P41" s="9"/>
       <c r="Q41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S41" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T41" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="B42" s="9">
-        <v>109</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>153</v>
+        <v>59</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E42" s="9">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>66</v>
@@ -3792,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -3804,46 +3938,51 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
-      </c>
-      <c r="P42" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="Q42" s="9" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="S42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>501</v>
+        <v>298</v>
       </c>
       <c r="B43" s="9">
-        <v>121</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>156</v>
+        <v>76</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E43" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -3865,39 +4004,42 @@
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="9" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S43" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="B44" s="9">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E44" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="9">
         <v>0</v>
@@ -3912,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="9">
         <v>0</v>
@@ -3927,25 +4069,28 @@
       <c r="R44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S44" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B45" s="9">
-        <v>121</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>161</v>
+        <v>51</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E45" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>20</v>
@@ -3979,42 +4124,45 @@
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="S45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="B46" s="9">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E46" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
@@ -4036,30 +4184,33 @@
       </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="9" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S46" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <v>531</v>
+        <v>671</v>
       </c>
       <c r="B47" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E47" s="9">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -4068,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="9">
         <v>0</v>
@@ -4077,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
@@ -4093,32 +4244,37 @@
       </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="9" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S47" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <v>544</v>
+        <v>743</v>
       </c>
       <c r="B48" s="9">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>170</v>
+        <v>128</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="E48" s="9">
-        <v>49</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="G48" s="9">
         <v>0</v>
       </c>
@@ -4138,43 +4294,46 @@
         <v>0</v>
       </c>
       <c r="M48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="9">
         <v>0</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S48" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T48" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>545</v>
+        <v>760</v>
       </c>
       <c r="B49" s="9">
-        <v>88</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="E49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
@@ -4189,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="9">
         <v>0</v>
@@ -4205,42 +4364,45 @@
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T49" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <v>549</v>
+        <v>796</v>
       </c>
       <c r="B50" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="E50" s="9">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
       <c r="H50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="9">
         <v>0</v>
@@ -4258,37 +4420,42 @@
         <v>0</v>
       </c>
       <c r="O50" s="9">
-        <v>0</v>
-      </c>
-      <c r="P50" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="Q50" s="9" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T50" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <v>558</v>
+        <v>810</v>
       </c>
       <c r="B51" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="E51" s="9">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
@@ -4318,37 +4485,38 @@
         <v>1</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <v>559</v>
+        <v>978</v>
       </c>
       <c r="B52" s="9">
-        <v>121</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E52" s="9">
-        <v>76</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="9">
         <v>0</v>
       </c>
@@ -4356,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="9">
         <v>0</v>
@@ -4368,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="9">
         <v>0</v>
@@ -4378,33 +4546,36 @@
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="S52" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <v>568</v>
+        <v>100</v>
       </c>
       <c r="B53" s="9">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="E53" s="9">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
@@ -4435,33 +4606,36 @@
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="S53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <v>570</v>
+        <v>988</v>
       </c>
       <c r="B54" s="9">
-        <v>120</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>188</v>
+        <v>13</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="E54" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G54" s="9">
         <v>0</v>
@@ -4470,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="9">
         <v>0</v>
@@ -4482,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="9">
         <v>0</v>
@@ -4492,39 +4666,42 @@
       </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T54" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="B55" s="9">
-        <v>72</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>191</v>
+        <v>8</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E55" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="G55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="9">
         <v>0</v>
@@ -4549,36 +4726,39 @@
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="S55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="B56" s="9">
-        <v>3</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>195</v>
+        <v>109</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="E56" s="9">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="9">
         <v>0</v>
@@ -4590,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -4606,39 +4786,42 @@
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="B57" s="9">
-        <v>128</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>197</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E57" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="9">
         <v>0</v>
@@ -4647,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="9">
         <v>0</v>
@@ -4663,33 +4846,36 @@
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="R57" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="S57" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="S57" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
-        <v>589</v>
+        <v>220</v>
       </c>
       <c r="B58" s="9">
-        <v>13</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>200</v>
+        <v>122</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E58" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -4704,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="9">
         <v>0</v>
       </c>
       <c r="M58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" s="9">
         <v>0</v>
@@ -4720,62 +4906,96 @@
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="9" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S58" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T58" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
-        <v>596</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12" t="s">
-        <v>203</v>
+        <v>832</v>
+      </c>
+      <c r="B59" s="9">
+        <v>35</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="E59" s="9">
-        <v>90</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0</v>
+      </c>
       <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q59" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
-        <v>602</v>
+        <v>782</v>
       </c>
       <c r="B60" s="9">
-        <v>36</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>205</v>
+        <v>27</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="E60" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G60" s="9">
         <v>0</v>
@@ -4784,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
@@ -4802,39 +5022,40 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>1</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P60" s="9"/>
       <c r="Q60" s="9" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T60" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
-        <v>638</v>
+        <v>288</v>
       </c>
       <c r="B61" s="9">
+        <v>121</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="D61" s="9" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="E61" s="9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
@@ -4843,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="9">
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
@@ -4865,30 +5086,33 @@
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="9" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="S61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T61" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="B62" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E62" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>66</v>
@@ -4900,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="I62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="9">
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="9">
         <v>0</v>
@@ -4922,33 +5146,36 @@
       </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="S62" s="9">
+        <v>114</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T62" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
-        <v>671</v>
+        <v>26</v>
       </c>
       <c r="B63" s="9">
-        <v>119</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>215</v>
+        <v>121</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="E63" s="9">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
@@ -4979,34 +5206,39 @@
       </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T63" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <v>696</v>
+        <v>577</v>
       </c>
       <c r="B64" s="9">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E64" s="9">
-        <v>43</v>
-      </c>
-      <c r="F64" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="G64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="9">
         <v>0</v>
@@ -5030,98 +5262,98 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>1</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P64" s="9"/>
       <c r="Q64" s="9" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S64" s="9">
+        <v>194</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>125</v>
+      </c>
+      <c r="B65" s="9">
+        <v>121</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="9">
+        <v>88</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0</v>
+      </c>
+      <c r="O65" s="9">
+        <v>0</v>
+      </c>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="T65" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>714</v>
-      </c>
-      <c r="B65" s="9">
-        <v>71</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="9">
-        <v>46</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9">
-        <v>1</v>
-      </c>
-      <c r="P65" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q65" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <v>737</v>
+        <v>246</v>
       </c>
       <c r="B66" s="9">
         <v>35</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="E66" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G66" s="9">
         <v>0</v>
@@ -5152,33 +5384,36 @@
       </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="9" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S66" s="9">
+        <v>289</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="T66" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
-        <v>738</v>
+        <v>807</v>
       </c>
       <c r="B67" s="9">
-        <v>69</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>229</v>
+        <v>35</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E67" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
@@ -5187,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="9">
         <v>0</v>
@@ -5209,33 +5444,36 @@
       </c>
       <c r="P67" s="9"/>
       <c r="Q67" s="9" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="S67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="T67" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="B68" s="9">
-        <v>128</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>232</v>
+        <v>112</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E68" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="G68" s="9">
         <v>0</v>
@@ -5259,37 +5497,42 @@
         <v>0</v>
       </c>
       <c r="N68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="9">
-        <v>0</v>
-      </c>
-      <c r="P68" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="Q68" s="9" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S68" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="T68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
-        <v>760</v>
+        <v>1</v>
       </c>
       <c r="B69" s="9">
-        <v>72</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>236</v>
+        <v>21</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E69" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>20</v>
@@ -5301,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="9">
         <v>0</v>
@@ -5310,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="9">
         <v>0</v>
@@ -5323,36 +5566,39 @@
       </c>
       <c r="P69" s="9"/>
       <c r="Q69" s="9" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S69" s="9">
+        <v>21</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T69" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
-        <v>767</v>
+        <v>545</v>
       </c>
       <c r="B70" s="9">
-        <v>128</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>238</v>
+        <v>88</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="E70" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="G70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="9">
         <v>0</v>
@@ -5364,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
@@ -5373,37 +5619,40 @@
         <v>0</v>
       </c>
       <c r="N70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="9">
         <v>0</v>
       </c>
       <c r="P70" s="9"/>
       <c r="Q70" s="9" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S70" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
-        <v>775</v>
+        <v>2</v>
       </c>
       <c r="B71" s="9">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="E71" s="9">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>20</v>
@@ -5437,149 +5686,158 @@
       </c>
       <c r="P71" s="9"/>
       <c r="Q71" s="9" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="S71" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T71" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
-        <v>782</v>
+        <v>76</v>
       </c>
       <c r="B72" s="9">
+        <v>128</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="9">
+        <v>73</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <v>1</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R72" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T72" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>171</v>
+      </c>
+      <c r="B73" s="9">
+        <v>121</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="9">
+        <v>6</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E72" s="9">
-        <v>50</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
-      <c r="H72" s="9">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1</v>
-      </c>
-      <c r="J72" s="9">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9">
-        <v>0</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9">
-        <v>0</v>
-      </c>
-      <c r="O72" s="9">
-        <v>0</v>
-      </c>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="R72" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="S72" s="9">
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T73" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>791</v>
-      </c>
-      <c r="B73" s="9">
-        <v>112</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E73" s="9">
-        <v>9</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="9">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-      <c r="J73" s="9">
-        <v>0</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" s="9">
-        <v>0</v>
-      </c>
-      <c r="N73" s="9">
-        <v>0</v>
-      </c>
-      <c r="O73" s="9">
-        <v>1</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q73" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="S73" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
-        <v>796</v>
+        <v>409</v>
       </c>
       <c r="B74" s="9">
-        <v>22</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>251</v>
+        <v>121</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="E74" s="9">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G74" s="9">
         <v>0</v>
@@ -5606,43 +5864,46 @@
         <v>0</v>
       </c>
       <c r="O74" s="9">
-        <v>1</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P74" s="9"/>
       <c r="Q74" s="9" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="R74" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S74" s="9">
+        <v>284</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T74" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
-        <v>806</v>
+        <v>506</v>
       </c>
       <c r="B75" s="9">
         <v>121</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="E75" s="9">
-        <v>94</v>
-      </c>
-      <c r="F75" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="9">
         <v>0</v>
@@ -5651,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
@@ -5667,39 +5928,42 @@
       </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="9" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S75" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
-        <v>807</v>
+        <v>587</v>
       </c>
       <c r="B76" s="9">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="E76" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="9">
         <v>0</v>
@@ -5724,89 +5988,93 @@
       </c>
       <c r="P76" s="9"/>
       <c r="Q76" s="9" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="S76" s="9">
+        <v>284</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T76" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>198</v>
+      </c>
+      <c r="B77" s="9">
+        <v>121</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="9">
+        <v>71</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R77" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="S77" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="T77" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>810</v>
-      </c>
-      <c r="B77" s="9">
-        <v>68</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E77" s="9">
-        <v>38</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="9">
-        <v>0</v>
-      </c>
-      <c r="K77" s="9">
-        <v>0</v>
-      </c>
-      <c r="L77" s="9">
-        <v>0</v>
-      </c>
-      <c r="M77" s="9">
-        <v>0</v>
-      </c>
-      <c r="N77" s="9">
-        <v>0</v>
-      </c>
-      <c r="O77" s="9">
-        <v>1</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S77" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
-        <v>832</v>
+        <v>568</v>
       </c>
       <c r="B78" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="E78" s="9">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>20</v>
@@ -5840,68 +6108,100 @@
       </c>
       <c r="P78" s="9"/>
       <c r="Q78" s="9" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="R78" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="S78" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="T78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
-        <v>890</v>
-      </c>
-      <c r="B79" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="B79" s="9">
+        <v>109</v>
+      </c>
       <c r="C79" s="12" t="s">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="E79" s="9">
-        <v>96</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0</v>
+      </c>
+      <c r="K79" s="9">
+        <v>0</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9">
+        <v>0</v>
+      </c>
+      <c r="O79" s="9">
+        <v>0</v>
+      </c>
       <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q79" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
-        <v>899</v>
+        <v>544</v>
       </c>
       <c r="B80" s="9">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="E80" s="9">
-        <v>81</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="9">
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="9">
         <v>0</v>
@@ -5916,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="9">
         <v>0</v>
@@ -5926,65 +6226,99 @@
       </c>
       <c r="P80" s="9"/>
       <c r="Q80" s="9" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="S80" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="S80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T80" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
-        <v>923</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10" t="s">
-        <v>273</v>
+        <v>767</v>
+      </c>
+      <c r="B81" s="9">
+        <v>128</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="E81" s="9">
-        <v>99</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9">
+        <v>0</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0</v>
+      </c>
+      <c r="M81" s="9">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>1</v>
+      </c>
+      <c r="O81" s="9">
+        <v>0</v>
+      </c>
       <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q81" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T81" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
-        <v>940</v>
+        <v>589</v>
       </c>
       <c r="B82" s="9">
-        <v>35</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>275</v>
+        <v>13</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="E82" s="9">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G82" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="9">
         <v>0</v>
@@ -6002,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="9">
         <v>0</v>
@@ -6012,186 +6346,117 @@
       </c>
       <c r="P82" s="9"/>
       <c r="Q82" s="9" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="R82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S82" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T82" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
-        <v>978</v>
-      </c>
-      <c r="B83" s="9">
-        <v>103</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>278</v>
+        <v>596</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="E83" s="9">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F83" s="9"/>
-      <c r="G83" s="9">
-        <v>0</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9">
-        <v>0</v>
-      </c>
-      <c r="K83" s="9">
-        <v>0</v>
-      </c>
-      <c r="L83" s="9">
-        <v>0</v>
-      </c>
-      <c r="M83" s="9">
-        <v>1</v>
-      </c>
-      <c r="N83" s="9">
-        <v>0</v>
-      </c>
-      <c r="O83" s="9">
-        <v>0</v>
-      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S83" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
-        <v>981</v>
-      </c>
-      <c r="B84" s="9">
-        <v>22</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="B84" s="9"/>
       <c r="C84" s="12" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E84" s="9">
-        <v>68</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="9">
-        <v>1</v>
-      </c>
-      <c r="H84" s="9">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-      <c r="J84" s="9">
-        <v>0</v>
-      </c>
-      <c r="K84" s="9">
-        <v>0</v>
-      </c>
-      <c r="L84" s="9">
-        <v>0</v>
-      </c>
-      <c r="M84" s="9">
-        <v>0</v>
-      </c>
-      <c r="N84" s="9">
-        <v>0</v>
-      </c>
-      <c r="O84" s="9">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="9"/>
-      <c r="Q84" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S84" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
-        <v>988</v>
-      </c>
-      <c r="B85" s="9">
-        <v>13</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="B85" s="9"/>
       <c r="C85" s="10" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E85" s="9">
-        <v>23</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="9">
-        <v>0</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="9">
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
-      </c>
-      <c r="L85" s="9">
-        <v>0</v>
-      </c>
-      <c r="M85" s="9">
-        <v>1</v>
-      </c>
-      <c r="N85" s="9">
-        <v>0</v>
-      </c>
-      <c r="O85" s="9">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
       <c r="P85" s="9"/>
-      <c r="Q85" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R85" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S85" s="9">
-        <v>3</v>
-      </c>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S85"/>
+  <autoFilter ref="A1:T85" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T85">
+      <sortCondition ref="S68"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T86">
+    <sortCondition ref="S26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>